--- a/SubRES_TMPL/SubRes_41_TRADE-ELC-EXTRAEU_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_41_TRADE-ELC-EXTRAEU_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\EU-TIMES\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewVEDA\Veda_models\EU_TIMES_Veda2.0\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3F1137-D808-4019-942D-5CD167B40C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B549B473-3F5A-4667-AA4F-690DF5F128A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" tabRatio="909" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERSE_Data_IMP-EXP_ExtraEU" sheetId="33" r:id="rId1"/>
@@ -35,13 +35,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Angelo L'Abbate</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="1" shapeId="0">
+    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="1" shapeId="0">
+    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="1" shapeId="0">
+    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="1" shapeId="0">
+    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="1" shapeId="0">
+    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -234,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -306,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -354,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0">
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B38" authorId="1" shapeId="0">
+    <comment ref="B38" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -402,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="1" shapeId="0">
+    <comment ref="B39" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -427,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="0" shapeId="0">
+    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -451,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0">
+    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -475,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="1" shapeId="0">
+    <comment ref="B44" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="1" shapeId="0">
+    <comment ref="B45" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -523,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="1" shapeId="0">
+    <comment ref="B46" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -547,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0" shapeId="0">
+    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -571,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="0" shapeId="0">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -595,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B52" authorId="0" shapeId="0">
+    <comment ref="B52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -619,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B54" authorId="0" shapeId="0">
+    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -643,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B55" authorId="0" shapeId="0">
+    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -672,13 +672,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amit</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="J5" authorId="0" shapeId="0">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -704,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H75" authorId="1" shapeId="0">
+    <comment ref="H75" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -729,7 +729,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D78" authorId="1" shapeId="0">
+    <comment ref="D78" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -755,7 +755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G78" authorId="1" shapeId="0">
+    <comment ref="G78" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -780,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D79" authorId="0" shapeId="0">
+    <comment ref="D79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -806,7 +806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D81" authorId="1" shapeId="0">
+    <comment ref="D81" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -836,7 +836,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="89">
   <si>
     <t>AT</t>
   </si>
@@ -947,9 +947,6 @@
   </si>
   <si>
     <t>AL</t>
-  </si>
-  <si>
-    <t>BH</t>
   </si>
   <si>
     <t>HR</t>
@@ -1098,15 +1095,24 @@
   <si>
     <t>EL</t>
   </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="186" formatCode="0.0000"/>
-    <numFmt numFmtId="187" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
-    <numFmt numFmtId="188" formatCode="#,##0;\-\ #,##0;_-\ &quot;- &quot;"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0;\-\ #,##0;_-\ &quot;- &quot;"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1263,11 +1269,11 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1305,20 +1311,20 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1359,12 +1365,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Euro" xfId="1"/>
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normale_B2020" xfId="4"/>
-    <cellStyle name="Nuovo" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normale_B2020" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Nuovo" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1699,12 +1705,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:CB58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1716,7 +1720,7 @@
   <sheetData>
     <row r="2" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -1741,10 +1745,10 @@
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1756,7 +1760,7 @@
     <row r="4" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>20</v>
@@ -1787,13 +1791,13 @@
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>7</v>
@@ -1826,7 +1830,7 @@
     <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>17</v>
@@ -1859,7 +1863,7 @@
     <row r="7" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>9</v>
@@ -1892,7 +1896,7 @@
     <row r="8" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>15</v>
@@ -1996,7 +2000,7 @@
     <row r="9" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>21</v>
@@ -2100,7 +2104,7 @@
     <row r="10" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>15</v>
@@ -2204,7 +2208,7 @@
     <row r="11" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>21</v>
@@ -2308,7 +2312,7 @@
     <row r="12" spans="1:80" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>17</v>
@@ -2412,7 +2416,7 @@
     <row r="13" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>21</v>
@@ -2516,7 +2520,7 @@
     <row r="14" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>26</v>
@@ -2620,7 +2624,7 @@
     <row r="15" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>12</v>
@@ -2724,7 +2728,7 @@
     <row r="16" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A16" s="24"/>
       <c r="B16" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>23</v>
@@ -2828,7 +2832,7 @@
     <row r="17" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
       <c r="B17" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>23</v>
@@ -2932,7 +2936,7 @@
     <row r="18" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
       <c r="B18" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>29</v>
@@ -3036,7 +3040,7 @@
     <row r="19" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>11</v>
@@ -3140,7 +3144,7 @@
     <row r="20" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
       <c r="B20" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>23</v>
@@ -3244,7 +3248,7 @@
     <row r="21" spans="1:80" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>3</v>
@@ -3348,7 +3352,7 @@
     <row r="22" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
       <c r="B22" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>28</v>
@@ -3452,7 +3456,7 @@
     <row r="23" spans="1:80" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
       <c r="B23" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>28</v>
@@ -3556,7 +3560,7 @@
     <row r="24" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
       <c r="B24" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>8</v>
@@ -3660,7 +3664,7 @@
     <row r="25" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
       <c r="B25" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>8</v>
@@ -3764,7 +3768,7 @@
     <row r="26" spans="1:80" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24"/>
       <c r="B26" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>28</v>
@@ -4162,7 +4166,7 @@
     </row>
     <row r="32" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -4187,10 +4191,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -4199,7 +4203,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="L33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M33" s="2">
         <f>(10^-3)*3.6</f>
@@ -4209,7 +4213,7 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>20</v>
@@ -4236,7 +4240,7 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>7</v>
@@ -4263,7 +4267,7 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>17</v>
@@ -4290,7 +4294,7 @@
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>9</v>
@@ -4317,7 +4321,7 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>15</v>
@@ -4344,7 +4348,7 @@
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>21</v>
@@ -4370,7 +4374,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
@@ -4397,7 +4401,7 @@
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>21</v>
@@ -4424,7 +4428,7 @@
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="24"/>
       <c r="B42" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>17</v>
@@ -4451,7 +4455,7 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>21</v>
@@ -4478,7 +4482,7 @@
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="24"/>
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>26</v>
@@ -4505,7 +4509,7 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="24"/>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -4532,7 +4536,7 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="24"/>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>23</v>
@@ -4559,7 +4563,7 @@
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="24"/>
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>23</v>
@@ -4586,7 +4590,7 @@
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="24"/>
       <c r="B48" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>29</v>
@@ -4613,7 +4617,7 @@
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="24"/>
       <c r="B49" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>11</v>
@@ -4640,7 +4644,7 @@
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="24"/>
       <c r="B50" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>23</v>
@@ -4667,7 +4671,7 @@
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="24"/>
       <c r="B51" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>3</v>
@@ -4694,7 +4698,7 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="24"/>
       <c r="B52" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>28</v>
@@ -4721,7 +4725,7 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="24"/>
       <c r="B53" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>28</v>
@@ -4748,7 +4752,7 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="24"/>
       <c r="B54" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>8</v>
@@ -4775,7 +4779,7 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="24"/>
       <c r="B55" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>8</v>
@@ -4802,7 +4806,7 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="24"/>
       <c r="B56" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>28</v>
@@ -4845,12 +4849,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:U88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4947,7 +4949,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>12</v>
@@ -4976,19 +4978,19 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1">
         <v>2005</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!D$5</f>
@@ -5015,19 +5017,19 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1">
         <v>2010</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!E$5</f>
@@ -5054,19 +5056,19 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1">
         <v>2015</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!F$5</f>
@@ -5095,19 +5097,19 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1">
         <v>2020</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!G$5</f>
@@ -5136,19 +5138,19 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1">
         <v>2025</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!H$5</f>
@@ -5177,19 +5179,19 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1">
         <v>2030</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!I$5</f>
@@ -5218,19 +5220,19 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1">
         <v>2005</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!D8*-1</f>
@@ -5243,19 +5245,19 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1">
         <v>2010</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!E8*-1</f>
@@ -5267,19 +5269,19 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1">
         <v>2015</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -5290,19 +5292,19 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1">
         <v>2020</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -5313,19 +5315,19 @@
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1">
         <v>2025</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -5336,19 +5338,19 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="27">
         <v>2030</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -5370,19 +5372,19 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1">
         <v>2005</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N16" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!D$10</f>
@@ -5395,19 +5397,19 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1">
         <v>2010</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N17" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!E$10</f>
@@ -5420,19 +5422,19 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1">
         <v>2015</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N18" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!F$10</f>
@@ -5445,19 +5447,19 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1">
         <v>2020</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -5469,19 +5471,19 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1">
         <v>2025</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -5493,19 +5495,19 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1">
         <v>2030</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -5517,19 +5519,19 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="15">
         <v>2005</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -5547,19 +5549,19 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="15">
         <v>2010</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -5577,19 +5579,19 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="15">
         <v>2015</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -5607,19 +5609,19 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="15">
         <v>2020</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -5638,19 +5640,19 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="15">
         <v>2025</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -5669,19 +5671,19 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="27">
         <v>2030</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
@@ -5702,19 +5704,19 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1">
         <v>2005</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L28" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!D$15</f>
@@ -5731,19 +5733,19 @@
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="1">
         <v>2010</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!E$15</f>
@@ -5760,19 +5762,19 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1">
         <v>2015</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!F$15</f>
@@ -5789,19 +5791,19 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1">
         <v>2020</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!G$15</f>
@@ -5818,19 +5820,19 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1">
         <v>2025</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L32" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!H$15</f>
@@ -5847,19 +5849,19 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="1">
         <v>2030</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L33" s="2">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!I$15</f>
@@ -5876,19 +5878,19 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="15">
         <v>2005</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
@@ -5906,19 +5908,19 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="15">
         <v>2010</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
@@ -5936,19 +5938,19 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="15">
         <v>2015</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -5966,19 +5968,19 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" s="15">
         <v>2020</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
@@ -5996,19 +5998,19 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="15">
         <v>2025</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
@@ -6029,19 +6031,19 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" s="27">
         <v>2030</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -6062,19 +6064,19 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" s="1">
         <v>2005</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
@@ -6095,19 +6097,19 @@
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="1">
         <v>2010</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
@@ -6128,19 +6130,19 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1">
         <v>2015</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
@@ -6161,19 +6163,19 @@
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43" s="1">
         <v>2020</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -6194,19 +6196,19 @@
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" s="1">
         <v>2025</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
@@ -6227,19 +6229,19 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" s="1">
         <v>2030</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
@@ -6260,19 +6262,19 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46" s="13">
         <v>2005</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G46" s="12">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!D$18</f>
@@ -6299,19 +6301,19 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E47" s="15">
         <v>2010</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G47" s="14">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!E$18</f>
@@ -6338,19 +6340,19 @@
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" s="15">
         <v>2015</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G48" s="14">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!F$18</f>
@@ -6377,19 +6379,19 @@
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E49" s="15">
         <v>2020</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G49" s="14">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!G$18</f>
@@ -6416,19 +6418,19 @@
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" s="15">
         <v>2025</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G50" s="14">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!H$18</f>
@@ -6455,19 +6457,19 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="27">
         <v>2030</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G51" s="18">
         <f>'ERSE_Data_IMP-EXP_ExtraEU'!I$18</f>
@@ -6494,19 +6496,19 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E52" s="13">
         <v>2005</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -6527,19 +6529,19 @@
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53" s="15">
         <v>2010</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -6560,19 +6562,19 @@
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E54" s="15">
         <v>2015</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
@@ -6593,19 +6595,19 @@
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E55" s="15">
         <v>2020</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
@@ -6626,19 +6628,19 @@
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E56" s="15">
         <v>2025</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
@@ -6659,19 +6661,19 @@
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" s="27">
         <v>2030</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
@@ -6692,19 +6694,19 @@
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58" s="13">
         <v>2005</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -6725,19 +6727,19 @@
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E59" s="15">
         <v>2010</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
@@ -6758,19 +6760,19 @@
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E60" s="15">
         <v>2015</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
@@ -6791,19 +6793,19 @@
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E61" s="15">
         <v>2020</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
@@ -6824,19 +6826,19 @@
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E62" s="15">
         <v>2025</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
@@ -6857,19 +6859,19 @@
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E63" s="27">
         <v>2030</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
@@ -6890,19 +6892,19 @@
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E64" s="15">
         <v>2005</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
@@ -6923,19 +6925,19 @@
     </row>
     <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E65" s="15">
         <v>2010</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
@@ -6956,19 +6958,19 @@
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E66" s="15">
         <v>2015</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
@@ -6989,19 +6991,19 @@
     </row>
     <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E67" s="15">
         <v>2020</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
@@ -7022,19 +7024,19 @@
     </row>
     <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E68" s="15">
         <v>2025</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
@@ -7055,19 +7057,19 @@
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E69" s="27">
         <v>2030</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
@@ -7088,7 +7090,7 @@
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B73" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -7112,7 +7114,7 @@
         <v>34</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H74" s="23" t="s">
         <v>1</v>
@@ -7159,16 +7161,16 @@
     </row>
     <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E75" s="1">
         <v>2015</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G75" s="39"/>
       <c r="H75" s="40">
@@ -7230,16 +7232,16 @@
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E76" s="1">
         <v>2030</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G76" s="39"/>
       <c r="H76" s="40">
@@ -7301,16 +7303,16 @@
     </row>
     <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E77" s="1">
         <v>2050</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G77" s="39"/>
       <c r="H77" s="40">
@@ -7372,10 +7374,10 @@
     </row>
     <row r="78" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D78" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G78" s="2">
         <f>6*31.536</f>
@@ -7384,16 +7386,16 @@
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C79" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G79" s="2">
         <v>5</v>
@@ -7401,16 +7403,16 @@
     </row>
     <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G80" s="2">
         <v>5</v>
@@ -7418,10 +7420,10 @@
     </row>
     <row r="81" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="G81" s="2">
         <v>50</v>
@@ -7429,10 +7431,10 @@
     </row>
     <row r="82" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G82" s="2">
         <v>31.536000000000001</v>
@@ -7440,10 +7442,10 @@
     </row>
     <row r="83" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D83" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G83" s="2">
         <v>100</v>
@@ -7589,11 +7591,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AN16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:AO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7635,9 +7637,9 @@
     <col min="41" max="41" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B2" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
@@ -7666,15 +7668,15 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
     </row>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="36" t="s">
         <v>71</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>72</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>0</v>
@@ -7713,7 +7715,7 @@
         <v>10</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R3" s="23" t="s">
         <v>12</v>
@@ -7770,28 +7772,31 @@
         <v>36</v>
       </c>
       <c r="AJ3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AK3" s="23" t="s">
+      <c r="AL3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AL3" s="23" t="s">
+      <c r="AM3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AM3" s="23" t="s">
+      <c r="AN3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AN3" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AO3" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B4" s="37"/>
       <c r="C4" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
@@ -7830,1315 +7835,1427 @@
       <c r="AM4" s="38"/>
       <c r="AN4" s="38"/>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="E11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="E12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="E13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
-      <c r="X14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="E14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="E15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO15" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="2">
-        <v>0</v>
+      <c r="E16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AS3:AS39">
+    <sortCondition ref="AS3:AS39"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>